--- a/cse494wbs.xlsx
+++ b/cse494wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\GitHub\cse494TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8774E9-0A55-413E-8B73-C5C258135508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A804BF-E75D-4CE4-81CA-C632AC70D067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2668C8D7-FC56-462D-8265-0B858332E0CB}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
